--- a/Excels/TLs_201810.xlsx
+++ b/Excels/TLs_201810.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aportiln\Desktop\proyecto_margin\script_servidor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmartino\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Tls Octubre" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>Antonio García Moreno</t>
   </si>
   <si>
-    <t xml:space="preserve">EXT-000193-00907 </t>
-  </si>
-  <si>
     <t>Pool Visualización</t>
   </si>
   <si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>158427</t>
+  </si>
+  <si>
+    <t>EXT-000193-00907</t>
   </si>
 </sst>
 </file>
@@ -863,21 +863,21 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -897,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -917,7 +917,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -937,7 +937,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -957,7 +957,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -977,7 +977,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -997,7 +997,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1457,12 +1457,12 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>36</v>
@@ -1477,12 +1477,12 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
@@ -1497,15 +1497,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D32" s="2">
         <v>176</v>
@@ -1517,15 +1517,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2">
         <v>154</v>
@@ -1537,15 +1537,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2">
         <v>16</v>
@@ -1557,15 +1557,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2">
         <v>16</v>
@@ -1577,15 +1577,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2">
         <v>96</v>
@@ -1597,15 +1597,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D37" s="2">
         <v>160</v>
@@ -1617,12 +1617,12 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>14</v>
@@ -1637,15 +1637,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="2">
         <v>152</v>
@@ -1657,35 +1657,35 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2">
         <v>152</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="6">
         <v>201810</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="2">
         <v>176</v>
@@ -1697,15 +1697,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2">
         <v>95</v>
@@ -1717,15 +1717,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="2">
         <v>128</v>
@@ -1737,15 +1737,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D44" s="2">
         <v>112</v>
@@ -1757,15 +1757,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="2">
         <v>40</v>
@@ -1777,15 +1777,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="2">
         <v>112</v>
@@ -1797,15 +1797,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2">
         <v>160</v>
@@ -1817,15 +1817,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -1837,15 +1837,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="2">
         <v>176</v>
@@ -1857,15 +1857,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -1877,12 +1877,12 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>19</v>
@@ -1897,15 +1897,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="2">
         <v>60</v>
@@ -1917,15 +1917,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="2">
         <v>144</v>
@@ -1937,15 +1937,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="2">
         <v>176</v>
@@ -1957,15 +1957,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="2">
         <v>160</v>
@@ -1977,15 +1977,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2">
         <v>136</v>
@@ -1997,15 +1997,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" s="2">
         <v>152</v>
@@ -2017,15 +2017,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="2">
         <v>160</v>
@@ -2037,15 +2037,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2">
         <v>160</v>
@@ -2057,15 +2057,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2">
         <v>88</v>
@@ -2077,15 +2077,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2">
         <v>160</v>
@@ -2097,15 +2097,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -2117,15 +2117,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D63" s="2">
         <v>144</v>
@@ -2137,35 +2137,35 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D64" s="2">
         <v>160</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="6">
+        <v>201810</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F64" s="6">
-        <v>201810</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D65" s="2">
         <v>72</v>
@@ -2177,35 +2177,35 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="2">
         <v>168</v>
       </c>
       <c r="E66" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="6">
+        <v>201810</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F66" s="6">
-        <v>201810</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D67" s="2">
         <v>161</v>
@@ -2217,15 +2217,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68" s="2">
         <v>16</v>
@@ -2237,15 +2237,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="2">
         <v>22</v>
@@ -2257,35 +2257,35 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70" s="2">
         <v>160</v>
       </c>
       <c r="E70" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70" s="6">
+        <v>201810</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="F70" s="6">
-        <v>201810</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D71" s="2">
         <v>0</v>
@@ -2297,15 +2297,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D72" s="2">
         <v>176</v>
@@ -2317,15 +2317,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73" s="2">
         <v>176</v>
@@ -2337,15 +2337,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D74" s="2">
         <v>176</v>
@@ -2357,15 +2357,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C75" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" s="2">
         <v>136</v>
@@ -2377,15 +2377,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D76" s="2">
         <v>22</v>
@@ -2397,15 +2397,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" s="2">
         <v>118</v>
@@ -2417,15 +2417,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C78" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" s="2">
         <v>158</v>
@@ -2437,15 +2437,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" s="2">
         <v>40</v>
@@ -2457,15 +2457,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80" s="2">
         <v>176</v>
@@ -2477,15 +2477,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C81" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D81" s="2">
         <v>168</v>
@@ -2497,12 +2497,12 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>24</v>
@@ -2517,15 +2517,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C83" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D83" s="2">
         <v>128</v>
@@ -2537,12 +2537,12 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>10</v>
@@ -2557,12 +2557,12 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>24</v>
@@ -2577,15 +2577,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D86" s="2">
         <v>168</v>
@@ -2597,15 +2597,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" s="2">
         <v>136</v>
@@ -2617,15 +2617,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D88" s="2">
         <v>176</v>
@@ -2637,15 +2637,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" s="2">
         <v>144</v>
@@ -2657,15 +2657,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D90" s="2">
         <v>168</v>
@@ -2677,15 +2677,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" s="2">
         <v>22</v>
@@ -2697,15 +2697,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C92" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D92" s="2">
         <v>186</v>
@@ -2717,15 +2717,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C93" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D93" s="2">
         <v>186</v>
@@ -2737,15 +2737,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D94" s="2">
         <v>8</v>
@@ -2757,15 +2757,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D95" s="2">
         <v>88</v>
@@ -2777,15 +2777,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D96" s="2">
         <v>176</v>
@@ -2797,15 +2797,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C97" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D97" s="2">
         <v>132</v>
@@ -2817,15 +2817,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C98" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D98" s="2">
         <v>14</v>
@@ -2837,15 +2837,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C99" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D99" s="2">
         <v>176</v>
@@ -2857,15 +2857,15 @@
         <v>201810</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D100" s="2">
         <v>166</v>
